--- a/users.xlsx
+++ b/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loeoe\Desktop\GitHub\NLP-Twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB9BCE1-1910-4F9C-A104-A1C86BFA71AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DACA30-F797-428E-9414-238B10D7AFD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3612" yWindow="1272" windowWidth="14400" windowHeight="7356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="219">
   <si>
     <t>name</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Jason Li</t>
   </si>
   <si>
-    <t>mikepillsbury</t>
-  </si>
-  <si>
     <t>哈德逊研究所</t>
   </si>
   <si>
@@ -751,10 +748,6 @@
   </si>
   <si>
     <t>richardbushill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Michael Pillsbury</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1117,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1374,343 +1367,343 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>216</v>
+      <c r="A24" t="s">
+        <v>50</v>
       </c>
       <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
         <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
         <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" t="s">
         <v>71</v>
-      </c>
-      <c r="C34" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>214</v>
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
         <v>76</v>
-      </c>
-      <c r="C37" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" t="s">
         <v>81</v>
       </c>
+      <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
         <v>83</v>
-      </c>
-      <c r="C40" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
@@ -1718,439 +1711,439 @@
         <v>111</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>138</v>
+      <c r="A76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" t="s">
         <v>161</v>
       </c>
-      <c r="C77" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>163</v>
-      </c>
-      <c r="B78" t="s">
         <v>164</v>
       </c>
+      <c r="B78" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>165</v>
+      <c r="A79" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B81" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
       <c r="C81" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B82" t="s">
         <v>172</v>
       </c>
-      <c r="C82" t="s">
-        <v>162</v>
+      <c r="B82" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
@@ -2158,98 +2151,87 @@
         <v>198</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B102" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
